--- a/3-Change Request/Forms/Request Form - F1.xlsx
+++ b/3-Change Request/Forms/Request Form - F1.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\3-Change Request\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8199237-302D-4E6B-889B-8D28AC9C6E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA3A47-7C4C-49C8-9E6D-EED53333D534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
   </bookViews>
   <sheets>
-    <sheet name="F-SW-CR-01" sheetId="1" r:id="rId1"/>
+    <sheet name="F-SW-SD-01" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-CR-01'!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-SD-01'!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1095,7 +1095,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
@@ -1376,7 +1376,7 @@
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/01&amp;R&amp;"Arial,Regular"&amp;16Rev: 0(0/0/2025)</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/01&amp;R&amp;"Arial,Regular"&amp;16Rev:0(01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
